--- a/biology/Zoologie/Hemiasteridae/Hemiasteridae.xlsx
+++ b/biology/Zoologie/Hemiasteridae/Hemiasteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hemiasteridae sont une famille d'oursins de l'ordre des Spatangoida.
 </t>
@@ -511,14 +523,16 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur.
 Chez cette famille en particulier, les plaques épisternales sont écartées en deux séries. 
 La plaque labrale est allongée longitudinalement, en forme de cale.  
 On note la présence d'un fasciole unique situé après le pétale.  
-L'ambulacre antérieur aboral porte des podia à ventouses[1].
-Cette famille semble être apparue au Crétacé inférieur (Albien), et seuls deux genres subsistent actuellement[1].
+L'ambulacre antérieur aboral porte des podia à ventouses.
+Cette famille semble être apparue au Crétacé inférieur (Albien), et seuls deux genres subsistent actuellement.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juin 2014) :
 genre Bolbaster Pomel, 1869 †
 genre Hemiaster Desor, in Agassiz &amp; Desor, 1847 †
 genre Heterolampas Cotteau, 1862 †
